--- a/seeds/店家.xlsx
+++ b/seeds/店家.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="195">
   <si>
     <t>店家名稱</t>
   </si>
@@ -1720,6 +1720,10 @@
       </rPr>
       <t>號</t>
     </r>
+  </si>
+  <si>
+    <t>種類</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2350,8 +2354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -2375,6 +2379,9 @@
       <c r="D1" t="s">
         <v>61</v>
       </c>
+      <c r="E1" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="2" spans="1:5" ht="16.2">
       <c r="A2" s="1" t="s">
@@ -2386,6 +2393,9 @@
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="16.2">
       <c r="A3" s="1" t="s">
@@ -2397,6 +2407,9 @@
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="16.2">
       <c r="A4" s="1" t="s">
@@ -2408,6 +2421,9 @@
       <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="16.2">
       <c r="A5" s="1" t="s">
@@ -2419,6 +2435,9 @@
       <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="16.2">
       <c r="A6" s="1" t="s">
@@ -2430,6 +2449,9 @@
       <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="16.2">
       <c r="A7" s="1" t="s">
@@ -2441,6 +2463,9 @@
       <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="16.2">
       <c r="A8" s="1" t="s">
@@ -2452,6 +2477,9 @@
       <c r="C8" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="16.2">
       <c r="A9" s="1" t="s">
@@ -2463,6 +2491,9 @@
       <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="16.2">
       <c r="A10" s="1" t="s">
@@ -2474,6 +2505,9 @@
       <c r="C10" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="16.2">
       <c r="A11" s="1" t="s">
@@ -2485,6 +2519,9 @@
       <c r="C11" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="16.2">
       <c r="A12" s="1" t="s">
@@ -2496,6 +2533,9 @@
       <c r="C12" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="16.2">
       <c r="A13" s="1" t="s">
@@ -2507,6 +2547,9 @@
       <c r="C13" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="16.2">
       <c r="A14" s="1" t="s">
@@ -2518,6 +2561,9 @@
       <c r="C14" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="16.2">
       <c r="A15" s="1" t="s">
@@ -2529,6 +2575,9 @@
       <c r="C15" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="16.2">
       <c r="A16" s="1" t="s">
@@ -2540,7 +2589,9 @@
       <c r="C16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="16.2">
       <c r="A17" s="1" t="s">
@@ -2552,6 +2603,9 @@
       <c r="C17" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="16.2">
       <c r="A18" s="1" t="s">
@@ -2564,6 +2618,9 @@
         <v>54</v>
       </c>
       <c r="D18" s="1"/>
+      <c r="E18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="16.8" thickBot="1">
       <c r="A19" s="1" t="s">
@@ -2575,7 +2632,9 @@
       <c r="C19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="16.8" thickBot="1">
       <c r="A20" s="2" t="s">
@@ -2590,6 +2649,9 @@
       <c r="D20" s="7" t="s">
         <v>60</v>
       </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="16.2">
       <c r="A21" s="2" t="s">
@@ -2604,6 +2666,9 @@
       <c r="D21" s="7" t="s">
         <v>65</v>
       </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="16.2">
       <c r="A22" s="2" t="s">
@@ -2618,6 +2683,9 @@
       <c r="D22" t="s">
         <v>69</v>
       </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="16.8" thickBot="1">
       <c r="A23" s="2" t="s">
@@ -2632,6 +2700,9 @@
       <c r="D23" t="s">
         <v>73</v>
       </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="16.8" thickBot="1">
       <c r="A24" s="5" t="s">
@@ -2646,6 +2717,9 @@
       <c r="D24" s="5" t="s">
         <v>76</v>
       </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="16.8" thickBot="1">
       <c r="A25" s="10" t="s">
@@ -2660,6 +2734,9 @@
       <c r="D25" s="5" t="s">
         <v>80</v>
       </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="16.2">
       <c r="A26" s="5" t="s">
@@ -2672,6 +2749,9 @@
       <c r="D26" s="5" t="s">
         <v>83</v>
       </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="16.2">
       <c r="A27" s="2" t="s">
@@ -2686,6 +2766,9 @@
       <c r="D27" t="s">
         <v>87</v>
       </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="16.2" thickBot="1">
       <c r="A28" s="12" t="s">
@@ -2700,6 +2783,9 @@
       <c r="D28" s="12" t="s">
         <v>91</v>
       </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:5" ht="16.2" thickBot="1">
       <c r="A29" s="14" t="s">
@@ -2714,6 +2800,9 @@
       <c r="D29" s="12" t="s">
         <v>95</v>
       </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="12" t="s">
@@ -2728,6 +2817,9 @@
       <c r="D30" s="12" t="s">
         <v>99</v>
       </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="12" t="s">
@@ -2742,6 +2834,9 @@
       <c r="D31" s="12" t="s">
         <v>103</v>
       </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="16.8" thickBot="1">
       <c r="A32" s="5" t="s">
@@ -2756,8 +2851,11 @@
       <c r="D32" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="33" thickBot="1">
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="33" thickBot="1">
       <c r="A33" s="10" t="s">
         <v>108</v>
       </c>
@@ -2767,8 +2865,11 @@
       <c r="C33" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="16.2">
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16.2">
       <c r="A34" s="2" t="s">
         <v>111</v>
       </c>
@@ -2781,8 +2882,11 @@
       <c r="D34" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="16.2">
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16.2">
       <c r="A35" s="5" t="s">
         <v>115</v>
       </c>
@@ -2795,8 +2899,11 @@
       <c r="D35" s="5" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="16.2">
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16.2">
       <c r="A36" s="5" t="s">
         <v>119</v>
       </c>
@@ -2806,8 +2913,11 @@
       <c r="C36" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="16.8" thickBot="1">
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16.8" thickBot="1">
       <c r="A37" s="5" t="s">
         <v>122</v>
       </c>
@@ -2820,8 +2930,11 @@
       <c r="D37" s="5" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="16.8" thickBot="1">
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16.8" thickBot="1">
       <c r="A38" s="10" t="s">
         <v>3</v>
       </c>
@@ -2831,8 +2944,11 @@
       <c r="C38" s="17" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="16.2" customHeight="1">
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16.2" customHeight="1">
       <c r="A39" s="21" t="s">
         <v>128</v>
       </c>
@@ -2842,13 +2958,19 @@
       <c r="C39" s="23" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="16.2" thickBot="1">
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16.2" thickBot="1">
       <c r="A40" s="22"/>
       <c r="B40" s="24"/>
       <c r="C40" s="24"/>
-    </row>
-    <row r="41" spans="1:4" ht="16.8" thickBot="1">
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16.8" thickBot="1">
       <c r="A41" s="19" t="s">
         <v>131</v>
       </c>
@@ -2858,8 +2980,11 @@
       <c r="C41" s="18" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="16.8" thickBot="1">
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16.8" thickBot="1">
       <c r="A42" s="19" t="s">
         <v>134</v>
       </c>
@@ -2869,8 +2994,11 @@
       <c r="C42" s="18" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="16.8" thickBot="1">
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16.8" thickBot="1">
       <c r="A43" s="19" t="s">
         <v>137</v>
       </c>
@@ -2880,8 +3008,11 @@
       <c r="C43" s="18" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="33" thickBot="1">
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="33" thickBot="1">
       <c r="A44" s="19" t="s">
         <v>140</v>
       </c>
@@ -2891,8 +3022,11 @@
       <c r="C44" s="18" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="16.8" thickBot="1">
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16.8" thickBot="1">
       <c r="A45" s="19" t="s">
         <v>7</v>
       </c>
@@ -2902,8 +3036,11 @@
       <c r="C45" s="18" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="16.8" thickBot="1">
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="16.8" thickBot="1">
       <c r="A46" s="19" t="s">
         <v>145</v>
       </c>
@@ -2913,8 +3050,11 @@
       <c r="C46" s="18" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="33" thickBot="1">
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="33" thickBot="1">
       <c r="A47" s="19" t="s">
         <v>148</v>
       </c>
@@ -2924,8 +3064,11 @@
       <c r="C47" s="18" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="16.8" thickBot="1">
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="16.8" thickBot="1">
       <c r="A48" s="19" t="s">
         <v>151</v>
       </c>
@@ -2935,8 +3078,11 @@
       <c r="C48" s="18" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="33" thickBot="1">
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="33" thickBot="1">
       <c r="A49" s="19" t="s">
         <v>154</v>
       </c>
@@ -2946,8 +3092,11 @@
       <c r="C49" s="18" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="16.8" thickBot="1">
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="16.8" thickBot="1">
       <c r="A50" s="19" t="s">
         <v>157</v>
       </c>
@@ -2957,8 +3106,11 @@
       <c r="C50" s="18" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="16.8" thickBot="1">
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="16.8" thickBot="1">
       <c r="A51" s="19" t="s">
         <v>160</v>
       </c>
@@ -2968,8 +3120,11 @@
       <c r="C51" s="18" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="16.8" thickBot="1">
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="16.8" thickBot="1">
       <c r="A52" s="19" t="s">
         <v>163</v>
       </c>
@@ -2979,8 +3134,11 @@
       <c r="C52" s="18" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="33" thickBot="1">
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="33" thickBot="1">
       <c r="A53" s="19" t="s">
         <v>166</v>
       </c>
@@ -2990,8 +3148,11 @@
       <c r="C53" s="18" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="16.8" thickBot="1">
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="16.8" thickBot="1">
       <c r="A54" s="19" t="s">
         <v>169</v>
       </c>
@@ -3001,8 +3162,11 @@
       <c r="C54" s="18" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="16.8" thickBot="1">
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="16.8" thickBot="1">
       <c r="A55" s="19" t="s">
         <v>22</v>
       </c>
@@ -3012,8 +3176,11 @@
       <c r="C55" s="18" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="16.8" thickBot="1">
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="16.8" thickBot="1">
       <c r="A56" s="20" t="s">
         <v>174</v>
       </c>
@@ -3023,8 +3190,11 @@
       <c r="C56" s="18" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="16.8" thickBot="1">
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="16.8" thickBot="1">
       <c r="A57" s="20" t="s">
         <v>177</v>
       </c>
@@ -3034,8 +3204,11 @@
       <c r="C57" s="18" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="16.8" thickBot="1">
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="16.8" thickBot="1">
       <c r="A58" s="19" t="s">
         <v>180</v>
       </c>
@@ -3045,8 +3218,11 @@
       <c r="C58" s="18" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="16.8" thickBot="1">
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="16.8" thickBot="1">
       <c r="A59" s="19" t="s">
         <v>183</v>
       </c>
@@ -3056,8 +3232,11 @@
       <c r="C59" s="18" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="16.8" thickBot="1">
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="16.8" thickBot="1">
       <c r="A60" s="19" t="s">
         <v>186</v>
       </c>
@@ -3067,8 +3246,11 @@
       <c r="C60" s="18" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="16.8" thickBot="1">
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="16.8" thickBot="1">
       <c r="A61" s="19" t="s">
         <v>189</v>
       </c>
@@ -3078,8 +3260,11 @@
       <c r="C61" s="18" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="33" thickBot="1">
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="33" thickBot="1">
       <c r="A62" s="19" t="s">
         <v>192</v>
       </c>
@@ -3087,11 +3272,14 @@
         <v>193</v>
       </c>
       <c r="C62" s="18"/>
-    </row>
-    <row r="63" spans="1:3" ht="16.2">
+      <c r="E62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="16.2">
       <c r="A63" s="2"/>
     </row>
-    <row r="64" spans="1:3" ht="16.2">
+    <row r="64" spans="1:5" ht="16.2">
       <c r="A64" s="2"/>
     </row>
     <row r="65" spans="1:1" ht="16.2">
